--- a/dati.xlsx
+++ b/dati.xlsx
@@ -14,21 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Lonetti</t>
+  </si>
+  <si>
     <t>Total distance</t>
   </si>
   <si>
+    <t>1,33km</t>
+  </si>
+  <si>
+    <t>457m</t>
+  </si>
+  <si>
     <t>Total time</t>
   </si>
   <si>
+    <t>00:14:48</t>
+  </si>
+  <si>
+    <t>00:02:57</t>
+  </si>
+  <si>
     <t>Max speed</t>
   </si>
   <si>
+    <t>5,38km/h</t>
+  </si>
+  <si>
+    <t>16,2km/h</t>
+  </si>
+  <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>2023-11-27 18:17:06</t>
+  </si>
+  <si>
+    <t>2023-11-28 13:38:03</t>
   </si>
 </sst>
 </file>
@@ -360,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,16 +398,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
